--- a/document/体系结构设计/接口参数列表.xlsx
+++ b/document/体系结构设计/接口参数列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软工大作业space\Hotel-Management-System\document\体系结构设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="15072" windowHeight="4476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginui-》loginbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orderui-&gt;orderbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,119 +230,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strategbl-&gt;management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>double getBestStrategy(Client client,Type type,String hotelid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>比较出最好的优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否是合作企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientbl-&gt;clientdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderbl-&gt;orderdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderInfoPO getOrderInfo(String orderid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderInfoPO[] getOrderList(String username,UserType type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool changeOrderState(String orderid,StateType to)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool withdrawOrder(String orderId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderbl-&gt;managebl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到酒店房间的价钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managebl-&gt;managedata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool addComment(CommentPO commentPO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotelPO getHotelList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientbl-&gt;orderbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information addAnOrder(Order order)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订酒店的时候发起订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatebl-&gt;updatedata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatebl-&gt;orderbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditbl-&gt;creditdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information addnewCreditInformation（CreditInformationPO po）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的信用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderbl-&gt;creditbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information addnewCreditInformation（CreditInformation po）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditInformationPO[] showCreditInformation(String client name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bool isPartner(String hotelid,String companyname)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比较出最好的优惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断是否是合作企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientbl-&gt;clientdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderbl-&gt;orderdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderInfoPO getOrderInfo(String orderid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderInfoPO[] getOrderList(String username,UserType type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool changeOrderState(String orderid,StateType to)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool withdrawOrder(String orderId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderbl-&gt;managebl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[] getPrices(String hotelid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得到酒店房间的价钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>managebl-&gt;managedata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderbl-&gt;updatedata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool addComment(CommentPO commentPO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HotelPO getHotelList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clientbl-&gt;orderbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information addAnOrder(Order order)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预订酒店的时候发起订单</t>
+    <t>strategbl-&gt;managebl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginui-&gt;loginbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updatebl-&gt;updatedata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updatebl-&gt;orderbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creditbl-&gt;creditdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information addnewCreditInformation（CreditInformationPO po）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加新的信用记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderbl-&gt;creditbl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information addnewCreditInformation（CreditInformation po）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreditInformationPO[] showCreditInformation(String client name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +367,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -388,8 +409,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,12 +429,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,30 +725,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="93.5" customWidth="1"/>
+    <col min="2" max="2" width="93.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -726,398 +756,399 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
       <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="B57" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B65" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1127,7 +1158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1140,7 +1171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
